--- a/P05/Scrum.xlsx
+++ b/P05/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\cse1325\P05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB24F976-2BDE-4BCB-B4B1-11AB875C4CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BB6380-3762-46D1-9A2D-6E56406BD0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1755" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="153">
   <si>
     <t>Product Name:</t>
   </si>
@@ -468,6 +468,39 @@
   </si>
   <si>
     <t>add Customer.java and build.xml to GitHub</t>
+  </si>
+  <si>
+    <t>Write Option Class</t>
+  </si>
+  <si>
+    <t>add Option.java and build.xml to GitHub</t>
+  </si>
+  <si>
+    <t>Write Computer Class</t>
+  </si>
+  <si>
+    <t>add Computer.java and build.xml to GitHub</t>
+  </si>
+  <si>
+    <t>Write Order Class</t>
+  </si>
+  <si>
+    <t>add Order.java and build.xml to GitHub</t>
+  </si>
+  <si>
+    <t>add Store.java and TestStore.java to GitHub</t>
+  </si>
+  <si>
+    <t>Completed Day 2</t>
+  </si>
+  <si>
+    <t>Completed Day 3</t>
+  </si>
+  <si>
+    <t>Completed Day 5</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
   </si>
 </sst>
 </file>
@@ -622,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -746,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,28 +1299,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5377,8 +5407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5481,7 +5511,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5496,7 +5526,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5514,11 +5544,11 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5532,11 +5562,11 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -5550,7 +5580,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5568,11 +5598,11 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -5586,11 +5616,11 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -5604,7 +5634,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -5654,7 +5684,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="39" t="s">
         <v>136</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -5706,7 +5736,7 @@
         <v>141</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F20" s="38"/>
     </row>
@@ -5714,70 +5744,112 @@
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>151</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>151</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>152</v>
+      </c>
       <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>152</v>
+      </c>
       <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>152</v>
+      </c>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
